--- a/Table1_AfterPSM.xlsx
+++ b/Table1_AfterPSM.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgrE7jv5CnDeYtkfBts4RWQkD0+mA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="EPkUj2Gdb3ddNorj5lVGn8hXS6wsDKi4Zt1FZPA35IM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="44">
   <si>
     <t>Yin_def,n=1180</t>
   </si>
@@ -961,7 +961,7 @@
         <v>12.47</v>
       </c>
       <c r="P12" s="12">
-        <v>0.006</v>
+        <v>0.933</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -1059,7 +1059,7 @@
         <v>3.96</v>
       </c>
       <c r="P15" s="12">
-        <v>0.009</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -1159,7 +1159,7 @@
         <v>8.78</v>
       </c>
       <c r="P18" s="12">
-        <v>0.992</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1257,7 +1257,7 @@
         <v>10.06</v>
       </c>
       <c r="P21" s="12">
-        <v>0.001</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1355,7 +1355,7 @@
         <v>7.38</v>
       </c>
       <c r="P24" s="12">
-        <v>0.033</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -1453,7 +1453,7 @@
         <v>0.07</v>
       </c>
       <c r="P27" s="12">
-        <v>0.005</v>
+        <v>0.564</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1"/>
@@ -1551,7 +1551,7 @@
         <v>0.19</v>
       </c>
       <c r="P30" s="12">
-        <v>0.007</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1"/>
@@ -1649,7 +1649,7 @@
         <v>1.43</v>
       </c>
       <c r="P33" s="12">
-        <v>0.001</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -1756,7 +1756,7 @@
         <v>0.5602094241</v>
       </c>
       <c r="P36" s="12">
-        <v>0.048</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -1912,7 +1912,7 @@
         <v>0.497829233</v>
       </c>
       <c r="P40" s="12">
-        <v>0.941</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -2064,8 +2064,12 @@
       <c r="N44" s="9">
         <v>33.0</v>
       </c>
+      <c r="O44" s="7">
+        <f>N44/(N44+N45+N46)</f>
+        <v>0.08894878706</v>
+      </c>
       <c r="P44" s="12">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -2266,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="P49" s="12">
-        <v>0.405</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -2419,8 +2423,8 @@
         <f t="shared" ref="O53:O54" si="33">N53/(L53+N53)</f>
         <v>0.4838235294</v>
       </c>
-      <c r="P53" s="9">
-        <v>0.066</v>
+      <c r="P53" s="12">
+        <v>0.02</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -2575,8 +2579,8 @@
         <f t="shared" ref="O57:O58" si="39">N57/(L57+N57)</f>
         <v>0.5007132668</v>
       </c>
-      <c r="P57" s="9">
-        <v>0.427</v>
+      <c r="P57" s="12">
+        <v>0.749</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -2729,8 +2733,8 @@
         <f t="shared" ref="O61:O62" si="45">N61/(L61+N61)</f>
         <v>0.4992679356</v>
       </c>
-      <c r="P61" s="9">
-        <v>0.665</v>
+      <c r="P61" s="12">
+        <v>1.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -2884,7 +2888,7 @@
         <v>0.5027932961</v>
       </c>
       <c r="P65" s="12">
-        <v>0.712</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -3037,8 +3041,8 @@
         <f t="shared" ref="O69:O70" si="57">N69/(L69+N69)</f>
         <v>0.4783861671</v>
       </c>
-      <c r="P69" s="12">
-        <v>0.001</v>
+      <c r="P69" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
